--- a/others/量化投资/THS/自动化交易_同花顺/data/策略对比.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略对比.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,12 +564,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>360.89%</t>
+          <t>352.20%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>28.74%</t>
+          <t>28.32%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -584,15 +584,15 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>49.31%</t>
+          <t>49.27%</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0.9315737264586569</v>
+        <v>0.9162343279992786</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>14.81%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -604,18 +604,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>137789</t>
+          <t>155259</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>高现金高毛利战法</t>
+          <t>TMT资金流入战法</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>价值投资</t>
+          <t>趋势股投资</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -625,17 +625,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>基本面</t>
+          <t>资金面</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>基本面</t>
+          <t>资金面</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>非st，非科创板，非退市，非停牌，流通市值大于5亿元，非同花顺，近1个月有&gt;=1次的减持公告取反，行业，货币资金减去负债总计＞1，流通股数＜5亿，年收益增长率＞15%，PE，流通市值＜100亿，毛利率＞30%，净资产收益率roe(加权公布值)大于等于10%，非科创板</t>
+          <t>TMT概念，近三日资金净流入大于5000万，非ST，非停牌</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -645,78 +645,78 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>528.91%</t>
+          <t>527.70%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>35.40%</t>
+          <t>96.47%</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>45.42%</t>
+          <t>27.95%</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>35.68%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>49.21%</t>
+          <t>38.56%</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0.908077156496615</v>
+        <v>2.790545331859453</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>6.94%</t>
+          <t>19.23%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[{'stkName': '国光股份', 'rise': None}, {'stkName': '凌霄泵业', 'rise': None}]</t>
+          <t>[{'stkName': '海信视像', 'rise': None}, {'stkName': '中兴通讯', 'rise': None}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>155259</t>
+          <t>155270</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TMT资金流入战法</t>
+          <t>中字头概念战法</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>趋势股投资</t>
+          <t>价值股投资</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>中线</t>
+          <t>中长线</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>资金面</t>
+          <t>基本面</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>资金面</t>
+          <t>基本面</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TMT概念，近三日资金净流入大于5000万，非ST，非停牌</t>
+          <t>中字头股票 ，实际控制人持股比例大于20% ，PE小于20，非ST，非停牌</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -726,285 +726,204 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>546.58%</t>
+          <t>108.59%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>98.82%</t>
+          <t>31.09%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>27.95%</t>
+          <t>22.41%</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>33.57%</t>
+          <t>25.37%</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>38.60%</t>
+          <t>49.70%</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2.854764059096667</v>
+        <v>1.106940412826042</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>19.23%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[{'stkName': '海信视像', 'rise': None}, {'stkName': '中兴通讯', 'rise': None}]</t>
+          <t>[{'stkName': '中铁工业', 'rise': None}, {'stkName': '中远通', 'rise': None}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>155270</t>
+          <t>155680</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>中字头概念战法</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>价值股投资</t>
+          <t>趋势投资</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>中长线</t>
+          <t>短线</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>基本面</t>
+          <t>技术面</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>基本面</t>
+          <t>技术面</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>中字头股票 ，实际控制人持股比例大于20% ，PE小于20，非ST，非停牌</t>
+          <t>AIGC概念，近三日资金净流入大于5000万，非ST，非停牌</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>从策略选出的股票池中，选取1-10支股票</t>
+          <t>通过GPT叠加一定选股逻辑，选取1-10支股票</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>111.09%</t>
+          <t>2576.87%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>31.72%</t>
+          <t>144.07%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>22.41%</t>
+          <t>65.80%</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>25.38%</t>
+          <t>56.60%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>49.78%</t>
+          <t>38.92%</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>1.131408997056153</v>
+        <v>2.492610341759357</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>8.99%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[{'stkName': '中铁工业', 'rise': None}, {'stkName': '中远通', 'rise': None}]</t>
+          <t>[{'stkName': '孩子王', 'rise': None}, {'stkName': '同花顺', 'rise': None}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>155680</t>
+          <t>138036</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>低价小盘股战法</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">流通股本指能够自由的在二级市场进行流通的股份。流通股本越大，股票波动率越小。 流通股本低于20亿意味着公司的波动率较高，弹性较大。 </t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>趋势投资</t>
+          <t>价值股投资</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>短线</t>
+          <t>长线</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>技术面</t>
+          <t>基本面</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>技术面</t>
+          <t>基本面</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AIGC概念，近三日资金净流入大于5000万，非ST，非停牌</t>
+          <t>非st，非科创板，非退市，非停牌，流通市值大于5亿元，非同花顺，近1个月有&gt;=1次的减持公告取反，股价不超过5块流通盘不超过4亿剔除亏损股的股票</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>通过GPT叠加一定选股逻辑，选取1-10支股票</t>
+          <t>从策略选出的股票池中，选取1-10支股票</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2673.77%</t>
+          <t>151.35%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>147.79%</t>
+          <t>27.75%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>65.80%</t>
+          <t>30.36%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>58.18%</t>
+          <t>29.85%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>38.95%</t>
+          <t>52.66%</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2.488451472972096</v>
+        <v>0.829010647637256</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>8.99%</t>
+          <t>12.12%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
-        <is>
-          <t>[{'stkName': '孩子王', 'rise': None}, {'stkName': '同花顺', 'rise': None}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>138036</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>低价小盘股战法</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">流通股本指能够自由的在二级市场进行流通的股份。流通股本越大，股票波动率越小。 流通股本低于20亿意味着公司的波动率较高，弹性较大。 </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>价值股投资</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>长线</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>基本面</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>基本面</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>非st，非科创板，非退市，非停牌，流通市值大于5亿元，非同花顺，近1个月有&gt;=1次的减持公告取反，股价不超过5块流通盘不超过4亿剔除亏损股的股票</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>从策略选出的股票池中，选取1-10支股票</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>157.90%</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>28.66%</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>30.36%</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>29.84%</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>52.72%</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>0.8599189396032696</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>12.12%</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
         <is>
           <t>[{'stkName': '合金投资', 'rise': None}, {'stkName': '河化股份', 'rise': None}]</t>
         </is>
